--- a/CS武器内容.xlsx
+++ b/CS武器内容.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\桌面\CS饰品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7807BC-4FEA-489F-ABB6-4195EF965904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCB93FF-D9C1-489F-AF23-94A95E8C42A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10775,11 +10775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D1338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1087" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A334" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I347" sqref="I347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -10805,7 +10804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -10819,7 +10818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -10833,7 +10832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>120</v>
       </c>
@@ -10847,7 +10846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -10861,7 +10860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -11043,7 +11042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -11057,7 +11056,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -11071,7 +11070,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -11085,7 +11084,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -11099,7 +11098,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -11281,7 +11280,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -11295,7 +11294,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>120</v>
       </c>
@@ -11309,7 +11308,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -11323,7 +11322,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -11337,7 +11336,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -11519,7 +11518,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -11533,7 +11532,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>61</v>
       </c>
@@ -11547,7 +11546,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>71</v>
       </c>
@@ -11561,7 +11560,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -11575,7 +11574,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>86</v>
       </c>
@@ -11757,7 +11756,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>109</v>
       </c>
@@ -11771,7 +11770,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -11785,7 +11784,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>23</v>
       </c>
@@ -11799,7 +11798,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>32</v>
       </c>
@@ -11813,7 +11812,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>36</v>
       </c>
@@ -11995,7 +11994,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>21</v>
       </c>
@@ -12009,7 +12008,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>120</v>
       </c>
@@ -12023,7 +12022,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>84</v>
       </c>
@@ -12037,7 +12036,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>26</v>
       </c>
@@ -12051,7 +12050,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>61</v>
       </c>
@@ -12233,7 +12232,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>23</v>
       </c>
@@ -12247,7 +12246,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>12</v>
       </c>
@@ -12261,7 +12260,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>120</v>
       </c>
@@ -12275,7 +12274,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>21</v>
       </c>
@@ -12289,7 +12288,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>19</v>
       </c>
@@ -12471,7 +12470,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>4</v>
       </c>
@@ -12485,7 +12484,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>109</v>
       </c>
@@ -12499,7 +12498,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>26</v>
       </c>
@@ -12513,7 +12512,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>23</v>
       </c>
@@ -12527,7 +12526,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>21</v>
       </c>
@@ -12709,7 +12708,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>23</v>
       </c>
@@ -12723,7 +12722,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>12</v>
       </c>
@@ -12737,7 +12736,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>63</v>
       </c>
@@ -12751,7 +12750,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>36</v>
       </c>
@@ -12765,7 +12764,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>4</v>
       </c>
@@ -12947,7 +12946,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>36</v>
       </c>
@@ -12961,7 +12960,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>6</v>
       </c>
@@ -12975,7 +12974,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>32</v>
       </c>
@@ -12989,7 +12988,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>53</v>
       </c>
@@ -13003,7 +13002,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>30</v>
       </c>
@@ -13185,7 +13184,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>86</v>
       </c>
@@ -13199,7 +13198,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>6</v>
       </c>
@@ -13213,7 +13212,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>122</v>
       </c>
@@ -13227,7 +13226,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>61</v>
       </c>
@@ -13241,7 +13240,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>46</v>
       </c>
@@ -13423,7 +13422,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>21</v>
       </c>
@@ -13437,7 +13436,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>19</v>
       </c>
@@ -13451,7 +13450,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>122</v>
       </c>
@@ -13465,7 +13464,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>26</v>
       </c>
@@ -13479,7 +13478,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>1234</v>
       </c>
@@ -13661,7 +13660,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>17</v>
       </c>
@@ -13675,7 +13674,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>21</v>
       </c>
@@ -13689,7 +13688,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>120</v>
       </c>
@@ -13703,7 +13702,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>6</v>
       </c>
@@ -13717,7 +13716,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>122</v>
       </c>
@@ -13899,7 +13898,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>109</v>
       </c>
@@ -13913,7 +13912,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>4</v>
       </c>
@@ -13927,7 +13926,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>86</v>
       </c>
@@ -13941,7 +13940,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>15</v>
       </c>
@@ -13955,7 +13954,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>12</v>
       </c>
@@ -14137,7 +14136,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>6</v>
       </c>
@@ -14151,7 +14150,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>4</v>
       </c>
@@ -14165,7 +14164,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>55</v>
       </c>
@@ -14179,7 +14178,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>109</v>
       </c>
@@ -14193,7 +14192,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>28</v>
       </c>
@@ -14375,7 +14374,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>57</v>
       </c>
@@ -14389,7 +14388,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>4</v>
       </c>
@@ -14403,7 +14402,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>1234</v>
       </c>
@@ -14417,7 +14416,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>12</v>
       </c>
@@ -14431,7 +14430,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>96</v>
       </c>
@@ -14613,7 +14612,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>6</v>
       </c>
@@ -14627,7 +14626,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>19</v>
       </c>
@@ -14641,7 +14640,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>21</v>
       </c>
@@ -14655,7 +14654,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>84</v>
       </c>
@@ -14669,7 +14668,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>71</v>
       </c>
@@ -14851,7 +14850,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>4</v>
       </c>
@@ -14865,7 +14864,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>120</v>
       </c>
@@ -14879,7 +14878,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>1083</v>
       </c>
@@ -14893,7 +14892,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>12</v>
       </c>
@@ -14907,7 +14906,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>6</v>
       </c>
@@ -15089,7 +15088,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>21</v>
       </c>
@@ -15103,7 +15102,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>32</v>
       </c>
@@ -15117,7 +15116,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>15</v>
       </c>
@@ -15131,7 +15130,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>46</v>
       </c>
@@ -15145,7 +15144,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>86</v>
       </c>
@@ -15327,7 +15326,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>86</v>
       </c>
@@ -15341,7 +15340,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>4</v>
       </c>
@@ -15355,7 +15354,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>30</v>
       </c>
@@ -15369,7 +15368,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>61</v>
       </c>
@@ -15383,7 +15382,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>122</v>
       </c>
@@ -15565,7 +15564,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>12</v>
       </c>
@@ -15579,7 +15578,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>23</v>
       </c>
@@ -15593,7 +15592,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>59</v>
       </c>
@@ -15607,7 +15606,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>42</v>
       </c>
@@ -15621,7 +15620,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>21</v>
       </c>
@@ -15803,7 +15802,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="359" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>6</v>
       </c>
@@ -15817,7 +15816,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="360" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>109</v>
       </c>
@@ -15831,7 +15830,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="361" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>4</v>
       </c>
@@ -15929,7 +15928,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="368" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>32</v>
       </c>
@@ -15943,7 +15942,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="369" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>120</v>
       </c>
@@ -15957,7 +15956,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="370" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>46</v>
       </c>
@@ -16097,7 +16096,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="380" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>1083</v>
       </c>
@@ -16111,7 +16110,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="381" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>57</v>
       </c>
@@ -16125,7 +16124,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="382" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>1083</v>
       </c>
@@ -16265,7 +16264,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="392" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>84</v>
       </c>
@@ -16279,7 +16278,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="393" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>6</v>
       </c>
@@ -16293,7 +16292,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="394" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>57</v>
       </c>
@@ -16307,7 +16306,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="395" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>21</v>
       </c>
@@ -16321,7 +16320,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="396" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>4</v>
       </c>
@@ -16461,7 +16460,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="406" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>36</v>
       </c>
@@ -16475,7 +16474,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="407" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>12</v>
       </c>
@@ -16489,7 +16488,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="408" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>86</v>
       </c>
@@ -16503,7 +16502,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="409" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>84</v>
       </c>
@@ -16517,7 +16516,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="410" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>19</v>
       </c>
@@ -16671,7 +16670,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="421" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>12</v>
       </c>
@@ -16685,7 +16684,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="422" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>96</v>
       </c>
@@ -16699,7 +16698,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="423" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>28</v>
       </c>
@@ -16713,7 +16712,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="424" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>57</v>
       </c>
@@ -16727,7 +16726,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="425" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>122</v>
       </c>
@@ -16909,7 +16908,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="438" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>46</v>
       </c>
@@ -16923,7 +16922,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="439" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>6</v>
       </c>
@@ -16937,7 +16936,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="440" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>4</v>
       </c>
@@ -17035,7 +17034,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="447" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>21</v>
       </c>
@@ -17049,7 +17048,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="448" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>109</v>
       </c>
@@ -17063,7 +17062,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="449" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>6</v>
       </c>
@@ -17077,7 +17076,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="450" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>86</v>
       </c>
@@ -17203,7 +17202,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="459" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>4</v>
       </c>
@@ -17217,7 +17216,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="460" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>21</v>
       </c>
@@ -17231,7 +17230,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="461" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>42</v>
       </c>
@@ -17245,7 +17244,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="462" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>6</v>
       </c>
@@ -17259,7 +17258,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="463" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>34</v>
       </c>
@@ -17273,7 +17272,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="464" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>122</v>
       </c>
@@ -17441,7 +17440,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="476" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>6</v>
       </c>
@@ -17455,7 +17454,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="477" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>4</v>
       </c>
@@ -17469,7 +17468,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="478" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>53</v>
       </c>
@@ -17483,7 +17482,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="479" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>17</v>
       </c>
@@ -17497,7 +17496,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="480" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>1083</v>
       </c>
@@ -17665,7 +17664,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="492" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>21</v>
       </c>
@@ -17679,7 +17678,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="493" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>4</v>
       </c>
@@ -17693,7 +17692,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="494" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>120</v>
       </c>
@@ -17707,7 +17706,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="495" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>120</v>
       </c>
@@ -17721,7 +17720,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="496" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>59</v>
       </c>
@@ -17735,7 +17734,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="497" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>12</v>
       </c>
@@ -17889,7 +17888,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="508" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>109</v>
       </c>
@@ -17903,7 +17902,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="509" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>4</v>
       </c>
@@ -17917,7 +17916,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="510" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>6</v>
       </c>
@@ -17931,7 +17930,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="511" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>42</v>
       </c>
@@ -17945,7 +17944,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="512" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>46</v>
       </c>
@@ -18099,7 +18098,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="523" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>12</v>
       </c>
@@ -18113,7 +18112,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="524" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>46</v>
       </c>
@@ -18127,7 +18126,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="525" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>23</v>
       </c>
@@ -18141,7 +18140,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="526" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>19</v>
       </c>
@@ -18155,7 +18154,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="527" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>109</v>
       </c>
@@ -18295,7 +18294,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="537" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>122</v>
       </c>
@@ -18309,7 +18308,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="538" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>6</v>
       </c>
@@ -18323,7 +18322,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="539" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>34</v>
       </c>
@@ -18337,7 +18336,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="540" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>46</v>
       </c>
@@ -18351,7 +18350,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="541" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>4</v>
       </c>
@@ -18477,7 +18476,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="550" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>42</v>
       </c>
@@ -18491,7 +18490,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="551" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>4</v>
       </c>
@@ -18505,7 +18504,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="552" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>26</v>
       </c>
@@ -18519,7 +18518,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="553" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>59</v>
       </c>
@@ -18533,7 +18532,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="554" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>57</v>
       </c>
@@ -18673,7 +18672,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="564" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>21</v>
       </c>
@@ -18687,7 +18686,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="565" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>4</v>
       </c>
@@ -18701,7 +18700,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="566" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>34</v>
       </c>
@@ -18715,7 +18714,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="567" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>109</v>
       </c>
@@ -18729,7 +18728,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="568" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>6</v>
       </c>
@@ -18897,7 +18896,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="580" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>1234</v>
       </c>
@@ -18911,7 +18910,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="581" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>21</v>
       </c>
@@ -18925,7 +18924,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="582" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>46</v>
       </c>
@@ -18939,7 +18938,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="583" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>98</v>
       </c>
@@ -18953,7 +18952,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="584" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>4</v>
       </c>
@@ -19135,7 +19134,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="597" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>120</v>
       </c>
@@ -19149,7 +19148,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="598" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>12</v>
       </c>
@@ -19163,7 +19162,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="599" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>32</v>
       </c>
@@ -19177,7 +19176,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="600" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>98</v>
       </c>
@@ -19191,7 +19190,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="601" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>4</v>
       </c>
@@ -19359,7 +19358,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="613" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>15</v>
       </c>
@@ -19373,7 +19372,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="614" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>21</v>
       </c>
@@ -19387,7 +19386,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="615" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>6</v>
       </c>
@@ -19401,7 +19400,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="616" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>57</v>
       </c>
@@ -19415,7 +19414,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="617" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>12</v>
       </c>
@@ -19541,7 +19540,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="626" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>21</v>
       </c>
@@ -19555,7 +19554,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="627" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>57</v>
       </c>
@@ -19569,7 +19568,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="628" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>86</v>
       </c>
@@ -19681,7 +19680,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="636" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>36</v>
       </c>
@@ -19695,7 +19694,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="637" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>120</v>
       </c>
@@ -19709,7 +19708,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="638" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>32</v>
       </c>
@@ -19723,7 +19722,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="639" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>12</v>
       </c>
@@ -19737,7 +19736,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="640" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>122</v>
       </c>
@@ -19751,7 +19750,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="641" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>17</v>
       </c>
@@ -19765,7 +19764,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="642" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>26</v>
       </c>
@@ -19779,7 +19778,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="643" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>75</v>
       </c>
@@ -19793,7 +19792,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="644" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>1234</v>
       </c>
@@ -19807,7 +19806,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="645" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>21</v>
       </c>
@@ -19821,7 +19820,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="646" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>23</v>
       </c>
@@ -19835,7 +19834,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="647" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>120</v>
       </c>
@@ -19849,7 +19848,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="648" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>86</v>
       </c>
@@ -19863,7 +19862,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="649" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>36</v>
       </c>
@@ -20045,7 +20044,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="662" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>6</v>
       </c>
@@ -20059,7 +20058,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="663" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>109</v>
       </c>
@@ -20073,7 +20072,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="664" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>55</v>
       </c>
@@ -20185,7 +20184,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="672" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>1083</v>
       </c>
@@ -20199,7 +20198,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="673" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>86</v>
       </c>
@@ -20213,7 +20212,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="674" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>46</v>
       </c>
@@ -20227,7 +20226,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="675" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>71</v>
       </c>
@@ -20241,7 +20240,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="676" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>57</v>
       </c>
@@ -20255,7 +20254,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="677" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>32</v>
       </c>
@@ -20269,7 +20268,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="678" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>63</v>
       </c>
@@ -20283,7 +20282,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="679" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>1231</v>
       </c>
@@ -20297,7 +20296,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="680" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>36</v>
       </c>
@@ -20311,7 +20310,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="681" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>4</v>
       </c>
@@ -20325,7 +20324,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="682" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>28</v>
       </c>
@@ -20339,7 +20338,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="683" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>32</v>
       </c>
@@ -20451,7 +20450,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="691" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>75</v>
       </c>
@@ -20465,7 +20464,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="692" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>19</v>
       </c>
@@ -20479,7 +20478,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="693" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>122</v>
       </c>
@@ -20493,7 +20492,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="694" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>61</v>
       </c>
@@ -20507,7 +20506,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="695" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>46</v>
       </c>
@@ -20521,7 +20520,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="696" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>53</v>
       </c>
@@ -20535,7 +20534,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="697" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>17</v>
       </c>
@@ -20549,7 +20548,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="698" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>15</v>
       </c>
@@ -20563,7 +20562,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="699" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>1235</v>
       </c>
@@ -20577,7 +20576,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="700" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>12</v>
       </c>
@@ -20591,7 +20590,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="701" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>19</v>
       </c>
@@ -20605,7 +20604,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="702" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>53</v>
       </c>
@@ -20717,7 +20716,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="710" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>32</v>
       </c>
@@ -20731,7 +20730,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="711" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>28</v>
       </c>
@@ -20745,7 +20744,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="712" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>23</v>
       </c>
@@ -20759,7 +20758,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="713" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>1231</v>
       </c>
@@ -20773,7 +20772,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="714" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>71</v>
       </c>
@@ -20787,7 +20786,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="715" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>26</v>
       </c>
@@ -20801,7 +20800,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="716" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>1083</v>
       </c>
@@ -20815,7 +20814,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="717" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>86</v>
       </c>
@@ -20829,7 +20828,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="718" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>36</v>
       </c>
@@ -20843,7 +20842,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="719" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>12</v>
       </c>
@@ -20857,7 +20856,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="720" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>46</v>
       </c>
@@ -20871,7 +20870,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="721" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>4</v>
       </c>
@@ -20983,7 +20982,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="729" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>1083</v>
       </c>
@@ -20997,7 +20996,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="730" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>42</v>
       </c>
@@ -21011,7 +21010,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="731" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>98</v>
       </c>
@@ -21025,7 +21024,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="732" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>17</v>
       </c>
@@ -21039,7 +21038,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="733" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>53</v>
       </c>
@@ -21053,7 +21052,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="734" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>34</v>
       </c>
@@ -21067,7 +21066,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="735" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>46</v>
       </c>
@@ -21081,7 +21080,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="736" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>1234</v>
       </c>
@@ -21095,7 +21094,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="737" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>32</v>
       </c>
@@ -21109,7 +21108,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="738" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>4</v>
       </c>
@@ -21123,7 +21122,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="739" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>36</v>
       </c>
@@ -21137,7 +21136,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="740" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>6</v>
       </c>
@@ -21249,7 +21248,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="748" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>1234</v>
       </c>
@@ -21263,7 +21262,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="749" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>17</v>
       </c>
@@ -21277,7 +21276,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="750" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>28</v>
       </c>
@@ -21291,7 +21290,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="751" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>34</v>
       </c>
@@ -21305,7 +21304,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="752" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>30</v>
       </c>
@@ -21319,7 +21318,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="753" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>1231</v>
       </c>
@@ -21333,7 +21332,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="754" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>15</v>
       </c>
@@ -21347,7 +21346,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="755" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>71</v>
       </c>
@@ -21361,7 +21360,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="756" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>75</v>
       </c>
@@ -21375,7 +21374,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="757" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>6</v>
       </c>
@@ -21389,7 +21388,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="758" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>12</v>
       </c>
@@ -21403,7 +21402,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="759" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>120</v>
       </c>
@@ -21529,7 +21528,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="768" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>71</v>
       </c>
@@ -21543,7 +21542,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="769" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>109</v>
       </c>
@@ -21557,7 +21556,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="770" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>55</v>
       </c>
@@ -21571,7 +21570,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="771" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>122</v>
       </c>
@@ -21585,7 +21584,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="772" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>26</v>
       </c>
@@ -21599,7 +21598,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="773" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>61</v>
       </c>
@@ -21613,7 +21612,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="774" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>57</v>
       </c>
@@ -21627,7 +21626,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="775" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>1083</v>
       </c>
@@ -21641,7 +21640,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="776" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>6</v>
       </c>
@@ -21655,7 +21654,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="777" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>80</v>
       </c>
@@ -21753,7 +21752,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="784" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>4</v>
       </c>
@@ -21767,7 +21766,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="785" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>53</v>
       </c>
@@ -21781,7 +21780,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="786" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>57</v>
       </c>
@@ -21795,7 +21794,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="787" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>30</v>
       </c>
@@ -21809,7 +21808,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="788" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>122</v>
       </c>
@@ -21823,7 +21822,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="789" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>1234</v>
       </c>
@@ -21837,7 +21836,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="790" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>59</v>
       </c>
@@ -21851,7 +21850,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="791" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>1083</v>
       </c>
@@ -21865,7 +21864,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="792" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>80</v>
       </c>
@@ -21879,7 +21878,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="793" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>1230</v>
       </c>
@@ -21893,7 +21892,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="794" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>61</v>
       </c>
@@ -22005,7 +22004,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="802" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
         <v>21</v>
       </c>
@@ -22019,7 +22018,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="803" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>46</v>
       </c>
@@ -22033,7 +22032,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="804" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>30</v>
       </c>
@@ -22047,7 +22046,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="805" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
         <v>26</v>
       </c>
@@ -22061,7 +22060,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="806" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
         <v>75</v>
       </c>
@@ -22075,7 +22074,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="807" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
         <v>36</v>
       </c>
@@ -22089,7 +22088,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="808" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
         <v>55</v>
       </c>
@@ -22103,7 +22102,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="809" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
         <v>96</v>
       </c>
@@ -22117,7 +22116,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="810" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
         <v>1237</v>
       </c>
@@ -22131,7 +22130,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="811" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
         <v>53</v>
       </c>
@@ -22145,7 +22144,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="812" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
         <v>71</v>
       </c>
@@ -22257,7 +22256,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="820" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
         <v>23</v>
       </c>
@@ -22271,7 +22270,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="821" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
         <v>1234</v>
       </c>
@@ -22285,7 +22284,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="822" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
         <v>36</v>
       </c>
@@ -22299,7 +22298,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="823" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
         <v>96</v>
       </c>
@@ -22313,7 +22312,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="824" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
         <v>63</v>
       </c>
@@ -22327,7 +22326,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="825" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
         <v>122</v>
       </c>
@@ -22341,7 +22340,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="826" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
         <v>61</v>
       </c>
@@ -22355,7 +22354,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="827" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
         <v>55</v>
       </c>
@@ -22369,7 +22368,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="828" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
         <v>28</v>
       </c>
@@ -22383,7 +22382,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="829" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
         <v>12</v>
       </c>
@@ -22397,7 +22396,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="830" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
         <v>30</v>
       </c>
@@ -22509,7 +22508,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="838" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
         <v>84</v>
       </c>
@@ -22523,7 +22522,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="839" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
         <v>80</v>
       </c>
@@ -22537,7 +22536,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="840" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
         <v>17</v>
       </c>
@@ -22551,7 +22550,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="841" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
         <v>21</v>
       </c>
@@ -22565,7 +22564,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="842" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
         <v>34</v>
       </c>
@@ -22579,7 +22578,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="843" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
         <v>19</v>
       </c>
@@ -22593,7 +22592,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="844" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
         <v>28</v>
       </c>
@@ -22607,7 +22606,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="845" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
         <v>57</v>
       </c>
@@ -22621,7 +22620,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="846" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
         <v>96</v>
       </c>
@@ -22705,7 +22704,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="852" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
         <v>57</v>
       </c>
@@ -22719,7 +22718,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="853" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
         <v>15</v>
       </c>
@@ -22733,7 +22732,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="854" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
         <v>80</v>
       </c>
@@ -22747,7 +22746,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="855" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
         <v>32</v>
       </c>
@@ -22761,7 +22760,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="856" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
         <v>23</v>
       </c>
@@ -22775,7 +22774,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="857" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
         <v>17</v>
       </c>
@@ -22789,7 +22788,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="858" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
         <v>26</v>
       </c>
@@ -22803,7 +22802,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="859" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
         <v>19</v>
       </c>
@@ -22817,7 +22816,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="860" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
         <v>61</v>
       </c>
@@ -22831,7 +22830,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="861" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
         <v>30</v>
       </c>
@@ -22845,7 +22844,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="862" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
         <v>75</v>
       </c>
@@ -22915,7 +22914,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="867" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
         <v>19</v>
       </c>
@@ -22929,7 +22928,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="868" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
         <v>28</v>
       </c>
@@ -22943,7 +22942,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="869" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
         <v>53</v>
       </c>
@@ -22971,7 +22970,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="871" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
         <v>21</v>
       </c>
@@ -22985,7 +22984,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="872" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
         <v>4</v>
       </c>
@@ -22999,7 +22998,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="873" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
         <v>32</v>
       </c>
@@ -23013,7 +23012,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="874" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
         <v>19</v>
       </c>
@@ -23027,7 +23026,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="875" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
         <v>34</v>
       </c>
@@ -23041,7 +23040,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="876" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
         <v>4</v>
       </c>
@@ -23125,7 +23124,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="882" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
         <v>46</v>
       </c>
@@ -23139,7 +23138,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="883" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A883" t="s">
         <v>36</v>
       </c>
@@ -23153,7 +23152,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="884" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
         <v>42</v>
       </c>
@@ -23167,7 +23166,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="885" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
         <v>53</v>
       </c>
@@ -23181,7 +23180,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="886" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
         <v>98</v>
       </c>
@@ -23195,7 +23194,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="887" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A887" t="s">
         <v>17</v>
       </c>
@@ -23209,7 +23208,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="888" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
         <v>1083</v>
       </c>
@@ -23223,7 +23222,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="889" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A889" t="s">
         <v>61</v>
       </c>
@@ -23237,7 +23236,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="890" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
         <v>32</v>
       </c>
@@ -23251,7 +23250,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="891" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A891" t="s">
         <v>57</v>
       </c>
@@ -23321,7 +23320,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="896" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A896" t="s">
         <v>98</v>
       </c>
@@ -23335,7 +23334,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="897" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
         <v>23</v>
       </c>
@@ -23349,7 +23348,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="898" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
         <v>36</v>
       </c>
@@ -23363,7 +23362,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="899" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A899" t="s">
         <v>34</v>
       </c>
@@ -23377,7 +23376,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="900" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
         <v>28</v>
       </c>
@@ -23391,7 +23390,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="901" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A901" t="s">
         <v>1234</v>
       </c>
@@ -23405,7 +23404,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="902" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
         <v>17</v>
       </c>
@@ -23419,7 +23418,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="903" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
         <v>80</v>
       </c>
@@ -23433,7 +23432,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="904" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
         <v>15</v>
       </c>
@@ -23447,7 +23446,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="905" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A905" t="s">
         <v>53</v>
       </c>
@@ -23461,7 +23460,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="906" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A906" t="s">
         <v>30</v>
       </c>
@@ -23573,7 +23572,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="914" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A914" t="s">
         <v>122</v>
       </c>
@@ -23587,7 +23586,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="915" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A915" t="s">
         <v>96</v>
       </c>
@@ -23601,7 +23600,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="916" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A916" t="s">
         <v>80</v>
       </c>
@@ -23615,7 +23614,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="917" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A917" t="s">
         <v>57</v>
       </c>
@@ -23629,7 +23628,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="918" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A918" t="s">
         <v>19</v>
       </c>
@@ -23643,7 +23642,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="919" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A919" t="s">
         <v>53</v>
       </c>
@@ -23657,7 +23656,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="920" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A920" t="s">
         <v>23</v>
       </c>
@@ -23671,7 +23670,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="921" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A921" t="s">
         <v>12</v>
       </c>
@@ -23783,7 +23782,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="929" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A929" t="s">
         <v>109</v>
       </c>
@@ -23797,7 +23796,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="930" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A930" t="s">
         <v>84</v>
       </c>
@@ -23811,7 +23810,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="931" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A931" t="s">
         <v>120</v>
       </c>
@@ -23825,7 +23824,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="932" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A932" t="s">
         <v>59</v>
       </c>
@@ -23839,7 +23838,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="933" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A933" t="s">
         <v>1083</v>
       </c>
@@ -23853,7 +23852,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="934" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A934" t="s">
         <v>75</v>
       </c>
@@ -23867,7 +23866,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="935" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A935" t="s">
         <v>63</v>
       </c>
@@ -23881,7 +23880,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="936" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A936" t="s">
         <v>6</v>
       </c>
@@ -23895,7 +23894,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="937" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A937" t="s">
         <v>12</v>
       </c>
@@ -23965,7 +23964,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="942" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A942" t="s">
         <v>120</v>
       </c>
@@ -23979,7 +23978,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="943" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A943" t="s">
         <v>34</v>
       </c>
@@ -23993,7 +23992,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="944" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A944" t="s">
         <v>63</v>
       </c>
@@ -24007,7 +24006,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="945" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A945" t="s">
         <v>15</v>
       </c>
@@ -24021,7 +24020,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="946" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A946" t="s">
         <v>46</v>
       </c>
@@ -24035,7 +24034,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="947" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A947" t="s">
         <v>28</v>
       </c>
@@ -24049,7 +24048,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="948" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A948" t="s">
         <v>36</v>
       </c>
@@ -24063,7 +24062,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="949" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A949" t="s">
         <v>59</v>
       </c>
@@ -24077,7 +24076,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="950" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A950" t="s">
         <v>71</v>
       </c>
@@ -24175,7 +24174,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="957" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A957" t="s">
         <v>4</v>
       </c>
@@ -24189,7 +24188,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="958" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A958" t="s">
         <v>59</v>
       </c>
@@ -24203,7 +24202,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="959" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A959" t="s">
         <v>21</v>
       </c>
@@ -24217,7 +24216,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="960" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A960" t="s">
         <v>1234</v>
       </c>
@@ -24287,7 +24286,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="965" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A965" t="s">
         <v>15</v>
       </c>
@@ -24301,7 +24300,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="966" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A966" t="s">
         <v>4</v>
       </c>
@@ -24315,7 +24314,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="967" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A967" t="s">
         <v>19</v>
       </c>
@@ -24329,7 +24328,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="968" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A968" t="s">
         <v>36</v>
       </c>
@@ -24343,7 +24342,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="969" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A969" t="s">
         <v>30</v>
       </c>
@@ -24357,7 +24356,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="970" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A970" t="s">
         <v>98</v>
       </c>
@@ -24371,7 +24370,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="971" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A971" t="s">
         <v>57</v>
       </c>
@@ -24385,7 +24384,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="972" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A972" t="s">
         <v>59</v>
       </c>
@@ -24399,7 +24398,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="973" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A973" t="s">
         <v>46</v>
       </c>
@@ -24413,7 +24412,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="974" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A974" t="s">
         <v>61</v>
       </c>
@@ -24427,7 +24426,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="975" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A975" t="s">
         <v>34</v>
       </c>
@@ -24441,7 +24440,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="976" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A976" t="s">
         <v>6</v>
       </c>
@@ -24455,7 +24454,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="977" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A977" t="s">
         <v>21</v>
       </c>
@@ -24525,7 +24524,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="982" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A982" t="s">
         <v>30</v>
       </c>
@@ -24539,7 +24538,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="983" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A983" t="s">
         <v>42</v>
       </c>
@@ -24553,7 +24552,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="984" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A984" t="s">
         <v>6</v>
       </c>
@@ -24567,7 +24566,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="985" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A985" t="s">
         <v>75</v>
       </c>
@@ -24581,7 +24580,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="986" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A986" t="s">
         <v>17</v>
       </c>
@@ -24595,7 +24594,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="987" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A987" t="s">
         <v>122</v>
       </c>
@@ -24609,7 +24608,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="988" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A988" t="s">
         <v>71</v>
       </c>
@@ -24623,7 +24622,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="989" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A989" t="s">
         <v>34</v>
       </c>
@@ -24665,7 +24664,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="992" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A992" t="s">
         <v>21</v>
       </c>
@@ -24679,7 +24678,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="993" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A993" t="s">
         <v>57</v>
       </c>
@@ -24693,7 +24692,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="994" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A994" t="s">
         <v>34</v>
       </c>
@@ -24707,7 +24706,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="995" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A995" t="s">
         <v>63</v>
       </c>
@@ -24777,7 +24776,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="1000" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1000" t="s">
         <v>26</v>
       </c>
@@ -24791,7 +24790,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="1001" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1001" t="s">
         <v>12</v>
       </c>
@@ -24805,7 +24804,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="1002" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1002" t="s">
         <v>28</v>
       </c>
@@ -24819,7 +24818,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="1003" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1003" t="s">
         <v>42</v>
       </c>
@@ -24833,7 +24832,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="1004" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1004" t="s">
         <v>71</v>
       </c>
@@ -24847,7 +24846,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="1005" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1005" t="s">
         <v>34</v>
       </c>
@@ -24861,7 +24860,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="1006" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1006" t="s">
         <v>30</v>
       </c>
@@ -24875,7 +24874,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="1007" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1007" t="s">
         <v>122</v>
       </c>
@@ -24889,7 +24888,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="1008" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1008" t="s">
         <v>86</v>
       </c>
@@ -24903,7 +24902,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="1009" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1009" t="s">
         <v>34</v>
       </c>
@@ -24917,7 +24916,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="1010" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1010" t="s">
         <v>96</v>
       </c>
@@ -24987,7 +24986,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="1015" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1015" t="s">
         <v>109</v>
       </c>
@@ -25001,7 +25000,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="1016" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1016" t="s">
         <v>6</v>
       </c>
@@ -25015,7 +25014,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="1017" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1017" t="s">
         <v>96</v>
       </c>
@@ -25029,7 +25028,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="1018" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1018" t="s">
         <v>86</v>
       </c>
@@ -25043,7 +25042,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="1019" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1019" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1019" t="s">
         <v>26</v>
       </c>
@@ -25057,7 +25056,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="1020" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1020" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1020" t="s">
         <v>57</v>
       </c>
@@ -25071,7 +25070,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="1021" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1021" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1021" t="s">
         <v>26</v>
       </c>
@@ -25085,7 +25084,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="1022" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1022" t="s">
         <v>122</v>
       </c>
@@ -25099,7 +25098,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="1023" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1023" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1023" t="s">
         <v>84</v>
       </c>
@@ -25113,7 +25112,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="1024" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1024" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1024" t="s">
         <v>53</v>
       </c>
@@ -25127,7 +25126,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="1025" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1025" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1025" t="s">
         <v>98</v>
       </c>
@@ -25141,7 +25140,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="1026" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1026" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1026" t="s">
         <v>59</v>
       </c>
@@ -25239,7 +25238,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="1033" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1033" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1033" t="s">
         <v>42</v>
       </c>
@@ -25253,7 +25252,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="1034" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1034" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1034" t="s">
         <v>96</v>
       </c>
@@ -25267,7 +25266,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="1035" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1035" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1035" t="s">
         <v>36</v>
       </c>
@@ -25281,7 +25280,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="1036" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1036" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1036" t="s">
         <v>26</v>
       </c>
@@ -25351,7 +25350,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="1041" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1041" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1041" t="s">
         <v>80</v>
       </c>
@@ -25365,7 +25364,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="1042" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1042" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1042" t="s">
         <v>32</v>
       </c>
@@ -25379,7 +25378,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="1043" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1043" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1043" t="s">
         <v>53</v>
       </c>
@@ -25393,7 +25392,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="1044" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1044" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1044" t="s">
         <v>23</v>
       </c>
@@ -25407,7 +25406,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="1045" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1045" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1045" t="s">
         <v>17</v>
       </c>
@@ -25421,7 +25420,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="1046" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1046" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1046" t="s">
         <v>57</v>
       </c>
@@ -25435,7 +25434,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="1047" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1047" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1047" t="s">
         <v>19</v>
       </c>
@@ -25449,7 +25448,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="1048" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1048" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1048" t="s">
         <v>122</v>
       </c>
@@ -25463,7 +25462,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="1049" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1049" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1049" t="s">
         <v>98</v>
       </c>
@@ -25477,7 +25476,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="1050" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1050" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1050" t="s">
         <v>46</v>
       </c>
@@ -25491,7 +25490,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="1051" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1051" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1051" t="s">
         <v>84</v>
       </c>
@@ -25547,7 +25546,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="1055" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1055" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1055" t="s">
         <v>26</v>
       </c>
@@ -25561,7 +25560,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="1056" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1056" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1056" t="s">
         <v>28</v>
       </c>
@@ -25575,7 +25574,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="1057" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1057" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1057" t="s">
         <v>46</v>
       </c>
@@ -25589,7 +25588,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="1058" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1058" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1058" t="s">
         <v>96</v>
       </c>
@@ -25603,7 +25602,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="1059" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1059" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1059" t="s">
         <v>15</v>
       </c>
@@ -25617,7 +25616,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="1060" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1060" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1060" t="s">
         <v>63</v>
       </c>
@@ -25659,7 +25658,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="1063" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1063" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1063" t="s">
         <v>75</v>
       </c>
@@ -25673,7 +25672,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="1064" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1064" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1064" t="s">
         <v>98</v>
       </c>
@@ -25687,7 +25686,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="1065" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1065" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1065" t="s">
         <v>84</v>
       </c>
@@ -25701,7 +25700,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="1066" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1066" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1066" t="s">
         <v>86</v>
       </c>
@@ -25715,7 +25714,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="1067" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1067" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1067" t="s">
         <v>12</v>
       </c>
@@ -25799,7 +25798,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="1073" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1073" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1073" t="s">
         <v>109</v>
       </c>
@@ -25813,7 +25812,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="1074" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1074" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1074" t="s">
         <v>17</v>
       </c>
@@ -25827,7 +25826,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="1075" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1075" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1075" t="s">
         <v>23</v>
       </c>
@@ -25841,7 +25840,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="1076" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1076" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1076" t="s">
         <v>42</v>
       </c>
@@ -25855,7 +25854,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="1077" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1077" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1077" t="s">
         <v>15</v>
       </c>
@@ -25869,7 +25868,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="1078" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1078" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1078" t="s">
         <v>28</v>
       </c>
@@ -25883,7 +25882,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="1079" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1079" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1079" t="s">
         <v>75</v>
       </c>
@@ -25897,7 +25896,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="1080" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1080" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1080" t="s">
         <v>63</v>
       </c>
@@ -25911,7 +25910,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="1081" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1081" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1081" t="s">
         <v>61</v>
       </c>
@@ -25925,7 +25924,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="1082" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1082" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1082" t="s">
         <v>122</v>
       </c>
@@ -25939,7 +25938,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="1083" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1083" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1083" t="s">
         <v>4</v>
       </c>
@@ -26051,7 +26050,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="1091" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1091" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1091" t="s">
         <v>57</v>
       </c>
@@ -26065,7 +26064,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="1092" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1092" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1092" t="s">
         <v>109</v>
       </c>
@@ -26079,7 +26078,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="1093" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1093" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1093" t="s">
         <v>96</v>
       </c>
@@ -26093,7 +26092,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="1094" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1094" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1094" t="s">
         <v>15</v>
       </c>
@@ -26107,7 +26106,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="1095" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1095" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1095" t="s">
         <v>30</v>
       </c>
@@ -26121,7 +26120,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="1096" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1096" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1096" t="s">
         <v>98</v>
       </c>
@@ -26135,7 +26134,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="1097" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1097" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1097" t="s">
         <v>57</v>
       </c>
@@ -26205,7 +26204,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="1102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1102" t="s">
         <v>98</v>
       </c>
@@ -26219,7 +26218,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="1103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1103" t="s">
         <v>75</v>
       </c>
@@ -26233,7 +26232,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="1104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1104" t="s">
         <v>84</v>
       </c>
@@ -26247,7 +26246,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="1105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1105" t="s">
         <v>120</v>
       </c>
@@ -26261,7 +26260,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="1106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1106" t="s">
         <v>122</v>
       </c>
@@ -26275,7 +26274,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="1107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1107" t="s">
         <v>61</v>
       </c>
@@ -26289,7 +26288,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="1108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1108" t="s">
         <v>71</v>
       </c>
@@ -26303,7 +26302,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="1109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1109" t="s">
         <v>59</v>
       </c>
@@ -26317,7 +26316,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="1110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1110" t="s">
         <v>32</v>
       </c>
@@ -26331,7 +26330,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="1111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1111" t="s">
         <v>30</v>
       </c>
@@ -26345,7 +26344,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="1112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1112" t="s">
         <v>17</v>
       </c>
@@ -26401,7 +26400,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="1116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1116" t="s">
         <v>57</v>
       </c>
@@ -26415,7 +26414,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="1117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1117" t="s">
         <v>63</v>
       </c>
@@ -26429,7 +26428,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="1118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1118" t="s">
         <v>59</v>
       </c>
@@ -26443,7 +26442,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="1119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1119" t="s">
         <v>46</v>
       </c>
@@ -26457,7 +26456,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="1120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1120" t="s">
         <v>36</v>
       </c>
@@ -26471,7 +26470,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="1121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1121" t="s">
         <v>21</v>
       </c>
@@ -26485,7 +26484,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="1122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1122" t="s">
         <v>28</v>
       </c>
@@ -26499,7 +26498,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="1123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1123" t="s">
         <v>71</v>
       </c>
@@ -26513,7 +26512,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="1124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1124" t="s">
         <v>98</v>
       </c>
@@ -26527,7 +26526,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="1125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1125" t="s">
         <v>19</v>
       </c>
@@ -26541,7 +26540,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="1126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1126" t="s">
         <v>34</v>
       </c>
@@ -26555,7 +26554,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="1127" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1127" t="s">
         <v>96</v>
       </c>
@@ -26611,7 +26610,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="1131" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1131" t="s">
         <v>96</v>
       </c>
@@ -26625,7 +26624,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="1132" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1132" t="s">
         <v>36</v>
       </c>
@@ -26639,7 +26638,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="1133" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1133" t="s">
         <v>26</v>
       </c>
@@ -26653,7 +26652,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="1134" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1134" t="s">
         <v>12</v>
       </c>
@@ -26765,7 +26764,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="1142" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1142" t="s">
         <v>19</v>
       </c>
@@ -26779,7 +26778,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="1143" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1143" t="s">
         <v>21</v>
       </c>
@@ -26793,7 +26792,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="1144" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1144" t="s">
         <v>26</v>
       </c>
@@ -26807,7 +26806,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="1145" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1145" t="s">
         <v>80</v>
       </c>
@@ -26821,7 +26820,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="1146" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1146" t="s">
         <v>84</v>
       </c>
@@ -26835,7 +26834,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="1147" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1147" t="s">
         <v>71</v>
       </c>
@@ -26849,7 +26848,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="1148" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1148" t="s">
         <v>10</v>
       </c>
@@ -26863,7 +26862,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="1149" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1149" t="s">
         <v>34</v>
       </c>
@@ -26877,7 +26876,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="1150" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1150" t="s">
         <v>23</v>
       </c>
@@ -26891,7 +26890,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="1151" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1151" t="s">
         <v>36</v>
       </c>
@@ -26905,7 +26904,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="1152" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1152" t="s">
         <v>55</v>
       </c>
@@ -26919,7 +26918,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="1153" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1153" t="s">
         <v>61</v>
       </c>
@@ -26933,7 +26932,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="1154" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1154" t="s">
         <v>57</v>
       </c>
@@ -26947,7 +26946,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="1155" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1155" t="s">
         <v>46</v>
       </c>
@@ -26961,7 +26960,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="1156" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1156" t="s">
         <v>1234</v>
       </c>
@@ -26975,7 +26974,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="1157" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1157" t="s">
         <v>53</v>
       </c>
@@ -26989,7 +26988,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="1158" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1158" t="s">
         <v>32</v>
       </c>
@@ -27003,7 +27002,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="1159" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1159" t="s">
         <v>30</v>
       </c>
@@ -27017,7 +27016,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="1160" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1160" t="s">
         <v>84</v>
       </c>
@@ -27031,7 +27030,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="1161" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1161" t="s">
         <v>15</v>
       </c>
@@ -27045,7 +27044,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="1162" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1162" t="s">
         <v>6</v>
       </c>
@@ -27157,7 +27156,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="1170" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1170" t="s">
         <v>1230</v>
       </c>
@@ -27171,7 +27170,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="1171" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1171" t="s">
         <v>36</v>
       </c>
@@ -27185,7 +27184,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="1172" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1172" t="s">
         <v>42</v>
       </c>
@@ -27199,7 +27198,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="1173" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1173" t="s">
         <v>46</v>
       </c>
@@ -27213,7 +27212,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="1174" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1174" t="s">
         <v>1234</v>
       </c>
@@ -27227,7 +27226,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="1175" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1175" t="s">
         <v>1236</v>
       </c>
@@ -27241,7 +27240,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="1176" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1176" t="s">
         <v>30</v>
       </c>
@@ -27255,7 +27254,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="1177" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1177" t="s">
         <v>1213</v>
       </c>
@@ -27269,7 +27268,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="1178" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1178" t="s">
         <v>71</v>
       </c>
@@ -27283,7 +27282,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="1179" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1179" t="s">
         <v>122</v>
       </c>
@@ -27297,7 +27296,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="1180" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1180" t="s">
         <v>98</v>
       </c>
@@ -27311,7 +27310,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="1181" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1181" t="s">
         <v>75</v>
       </c>
@@ -27325,7 +27324,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="1182" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1182" t="s">
         <v>61</v>
       </c>
@@ -27339,7 +27338,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="1183" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1183" t="s">
         <v>57</v>
       </c>
@@ -27353,7 +27352,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="1184" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1184" t="s">
         <v>32</v>
       </c>
@@ -27367,7 +27366,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="1185" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1185" t="s">
         <v>30</v>
       </c>
@@ -27381,7 +27380,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="1186" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1186" t="s">
         <v>28</v>
       </c>
@@ -27395,7 +27394,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="1187" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1187" t="s">
         <v>80</v>
       </c>
@@ -27409,7 +27408,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="1188" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1188" t="s">
         <v>10</v>
       </c>
@@ -27423,7 +27422,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="1189" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1189" t="s">
         <v>86</v>
       </c>
@@ -27437,7 +27436,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="1190" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1190" t="s">
         <v>4</v>
       </c>
@@ -27577,7 +27576,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="1200" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1200" t="s">
         <v>21</v>
       </c>
@@ -27591,7 +27590,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="1201" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1201" t="s">
         <v>57</v>
       </c>
@@ -27605,7 +27604,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="1202" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1202" t="s">
         <v>53</v>
       </c>
@@ -27619,7 +27618,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="1203" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1203" t="s">
         <v>30</v>
       </c>
@@ -27633,7 +27632,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="1204" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1204" t="s">
         <v>1213</v>
       </c>
@@ -27647,7 +27646,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="1205" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1205" t="s">
         <v>86</v>
       </c>
@@ -27661,7 +27660,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="1206" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1206" t="s">
         <v>1083</v>
       </c>
@@ -27675,7 +27674,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="1207" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1207" t="s">
         <v>19</v>
       </c>
@@ -27689,7 +27688,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="1208" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1208" t="s">
         <v>98</v>
       </c>
@@ -27703,7 +27702,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="1209" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1209" t="s">
         <v>36</v>
       </c>
@@ -27717,7 +27716,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="1210" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1210" t="s">
         <v>17</v>
       </c>
@@ -27731,7 +27730,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="1211" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1211" t="s">
         <v>61</v>
       </c>
@@ -27745,7 +27744,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="1212" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1212" t="s">
         <v>46</v>
       </c>
@@ -27759,7 +27758,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="1213" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1213" t="s">
         <v>96</v>
       </c>
@@ -27773,7 +27772,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="1214" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1214" t="s">
         <v>59</v>
       </c>
@@ -27787,7 +27786,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="1215" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1215" t="s">
         <v>26</v>
       </c>
@@ -27801,7 +27800,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="1216" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1216" t="s">
         <v>71</v>
       </c>
@@ -27815,7 +27814,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="1217" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1217" t="s">
         <v>34</v>
       </c>
@@ -27829,7 +27828,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="1218" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1218" t="s">
         <v>4</v>
       </c>
@@ -27843,7 +27842,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="1219" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1219" t="s">
         <v>21</v>
       </c>
@@ -27857,7 +27856,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="1220" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1220" t="s">
         <v>6</v>
       </c>
@@ -27871,7 +27870,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="1221" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1221" t="s">
         <v>17</v>
       </c>
@@ -27885,7 +27884,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="1222" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1222" t="s">
         <v>23</v>
       </c>
@@ -28067,7 +28066,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="1235" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1235" t="s">
         <v>6</v>
       </c>
@@ -28081,7 +28080,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="1236" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1236" t="s">
         <v>86</v>
       </c>
@@ -28095,7 +28094,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="1237" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1237" t="s">
         <v>4</v>
       </c>
@@ -28109,7 +28108,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="1238" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1238" t="s">
         <v>28</v>
       </c>
@@ -28123,7 +28122,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="1239" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1239" t="s">
         <v>23</v>
       </c>
@@ -28305,7 +28304,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="1252" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1252" t="s">
         <v>12</v>
       </c>
@@ -28319,7 +28318,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="1253" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1253" t="s">
         <v>23</v>
       </c>
@@ -28333,7 +28332,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="1254" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1254" t="s">
         <v>4</v>
       </c>
@@ -28347,7 +28346,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="1255" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1255" t="s">
         <v>57</v>
       </c>
@@ -28361,7 +28360,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="1256" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1256" t="s">
         <v>28</v>
       </c>
@@ -28543,7 +28542,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="1269" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1269" t="s">
         <v>4</v>
       </c>
@@ -28557,7 +28556,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="1270" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1270" t="s">
         <v>1220</v>
       </c>
@@ -28571,7 +28570,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="1271" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1271" t="s">
         <v>10</v>
       </c>
@@ -28683,7 +28682,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="1279" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1279" t="s">
         <v>19</v>
       </c>
@@ -28697,7 +28696,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="1280" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1280" t="s">
         <v>12</v>
       </c>
@@ -28711,7 +28710,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="1281" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1281" t="s">
         <v>55</v>
       </c>
@@ -28725,7 +28724,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="1282" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1282" t="s">
         <v>46</v>
       </c>
@@ -28739,7 +28738,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="1283" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1283" t="s">
         <v>80</v>
       </c>
@@ -28753,7 +28752,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="1284" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1284" t="s">
         <v>109</v>
       </c>
@@ -28767,7 +28766,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="1285" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1285" t="s">
         <v>1220</v>
       </c>
@@ -28781,7 +28780,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="1286" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1286" t="s">
         <v>122</v>
       </c>
@@ -28795,7 +28794,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="1287" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1287" t="s">
         <v>109</v>
       </c>
@@ -28907,7 +28906,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="1295" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1295" t="s">
         <v>75</v>
       </c>
@@ -28921,7 +28920,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="1296" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1296" t="s">
         <v>17</v>
       </c>
@@ -28935,7 +28934,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="1297" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1297" t="s">
         <v>42</v>
       </c>
@@ -28949,7 +28948,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="1298" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1298" t="s">
         <v>32</v>
       </c>
@@ -28963,7 +28962,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="1299" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1299" t="s">
         <v>84</v>
       </c>
@@ -28977,7 +28976,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="1300" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1300" t="s">
         <v>86</v>
       </c>
@@ -28991,7 +28990,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="1301" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1301" t="s">
         <v>12</v>
       </c>
@@ -29005,7 +29004,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="1302" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1302" t="s">
         <v>84</v>
       </c>
@@ -29019,7 +29018,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="1303" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1303" t="s">
         <v>23</v>
       </c>
@@ -29131,7 +29130,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="1311" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1311" t="s">
         <v>4</v>
       </c>
@@ -29145,7 +29144,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="1312" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1312" t="s">
         <v>63</v>
       </c>
@@ -29159,7 +29158,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="1313" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1313" t="s">
         <v>55</v>
       </c>
@@ -29173,7 +29172,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="1314" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1314" t="s">
         <v>96</v>
       </c>
@@ -29187,7 +29186,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="1315" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1315" t="s">
         <v>30</v>
       </c>
@@ -29201,7 +29200,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="1316" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1316" t="s">
         <v>86</v>
       </c>
@@ -29215,7 +29214,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="1317" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1317" t="s">
         <v>1220</v>
       </c>
@@ -29229,7 +29228,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="1318" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1318" t="s">
         <v>21</v>
       </c>
@@ -29243,7 +29242,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="1319" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1319" t="s">
         <v>61</v>
       </c>
@@ -29355,7 +29354,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="1327" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1327" t="s">
         <v>122</v>
       </c>
@@ -29369,7 +29368,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="1328" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1328" t="s">
         <v>1083</v>
       </c>
@@ -29383,7 +29382,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="1329" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1329" t="s">
         <v>57</v>
       </c>
@@ -29397,7 +29396,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="1330" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1330" t="s">
         <v>46</v>
       </c>
@@ -29411,7 +29410,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="1331" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1331" t="s">
         <v>84</v>
       </c>
@@ -29425,7 +29424,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="1332" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1332" t="s">
         <v>34</v>
       </c>
@@ -29439,7 +29438,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="1333" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1333" t="s">
         <v>21</v>
       </c>
@@ -29467,7 +29466,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="1335" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1335" t="s">
         <v>12</v>
       </c>
@@ -29495,7 +29494,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="1337" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1337" t="s">
         <v>109</v>
       </c>
@@ -29524,14 +29523,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1338" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="军规"/>
-        <filter val="受限"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D1338" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
